--- a/utilities/CalibrationProtocolSpreadsheet/Y520-Conductivity-Calibrator.xlsx
+++ b/utilities/CalibrationProtocolSpreadsheet/Y520-Conductivity-Calibrator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaufdenkampe/Documents/Arduino/YosemitechModbus/utilities/CalibrationProtocolSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B8C540-353A-D04D-869D-2CAD86AA5B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2379A7-D078-CC40-86E3-9FEE72C87D12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="33260" windowHeight="20340" xr2:uid="{A01D2E8A-3A02-234A-9567-63BD2965B45A}"/>
+    <workbookView xWindow="1380" yWindow="2800" windowWidth="33260" windowHeight="19540" xr2:uid="{A01D2E8A-3A02-234A-9567-63BD2965B45A}"/>
   </bookViews>
   <sheets>
     <sheet name="YL09-example" sheetId="7" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>mS/cm</t>
   </si>
@@ -188,6 +197,12 @@
   </si>
   <si>
     <t>Y520 Conductivity Calibrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YosemiTech puts the measured values on the X-axis, despite it being the "independent variable". </t>
+  </si>
+  <si>
+    <t>Many other well-known sensor companies also follow this practice, even though it does not technically follow statistical best practice.</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2425,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3123,8 +3138,8 @@
         <v>-0.60071942311057569</v>
       </c>
       <c r="K25" s="8">
-        <f>(E25+$F$32) * $F$31</f>
-        <v>125.15420619887915</v>
+        <f>$F$31 * E25 + $F$32</f>
+        <v>125.60071942311058</v>
       </c>
       <c r="T25" s="8">
         <f>H20</f>
@@ -3156,8 +3171,8 @@
         <v>-0.27799536020171445</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" ref="K26:K28" si="3">(E26+$F$32) * $F$31</f>
-        <v>249.83148213597033</v>
+        <f t="shared" ref="K26:K28" si="3">$F$31 * E26 + $F$32</f>
+        <v>250.27799536020171</v>
       </c>
       <c r="T26" s="8">
         <f>K20</f>
@@ -3190,7 +3205,7 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" si="3"/>
-        <v>498.09106977900632</v>
+        <v>498.53758300323778</v>
       </c>
       <c r="T27" s="8">
         <f>N20</f>
@@ -3220,7 +3235,7 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" si="3"/>
-        <v>1000.1371889892185</v>
+        <v>1000.5837022134499</v>
       </c>
       <c r="T28" s="8">
         <f>Q20</f>
@@ -3290,13 +3305,16 @@
         <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F33" s="25"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="T33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="E34" s="12" t="s">
         <v>13</v>
@@ -3309,20 +3327,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E38" s="12"/>
     </row>
   </sheetData>
